--- a/biology/Médecine/Fascia_clavi-pectoral/Fascia_clavi-pectoral.xlsx
+++ b/biology/Médecine/Fascia_clavi-pectoral/Fascia_clavi-pectoral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fascia clavi-pectoral (ou fascia coraco-claviculaire) est un fascia tendu entre le muscle subclavier et le muscle petit pectoral.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fascia clavi-pectoral est tendu verticalement.
 Son bord supérieur se dédouble pour enfermer le muscle subclavier et chaque feuillet s’insère sur la face inférieure de la clavicule le long des lèvres de sillon d'insertion du muscle. Le feuillet postérieur fusionne avec la lame superficielle du fascia cervical et avec la gaine axillaire.
